--- a/data analysis/analysis after annotation/t2 - analysis after annotation.xlsx
+++ b/data analysis/analysis after annotation/t2 - analysis after annotation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c8b5f55204459eeb/thesis report/data analysis/analysis after annotation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\GitHub\MASc\data analysis\analysis after annotation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6735" windowHeight="3690" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6735" windowHeight="3690"/>
   </bookViews>
   <sheets>
     <sheet name="t2-s1" sheetId="1" r:id="rId1"/>
@@ -1546,11 +1546,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2401,7 +2401,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3436,7 +3436,7 @@
       <selection activeCell="I32" sqref="I32"/>
       <selection pane="topRight" activeCell="I32" sqref="I32"/>
       <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4169,7 +4169,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4973,11 +4973,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5708,7 +5708,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -6433,7 +6433,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -7595,7 +7595,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/data analysis/analysis after annotation/t2 - analysis after annotation.xlsx
+++ b/data analysis/analysis after annotation/t2 - analysis after annotation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6735" windowHeight="3690"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6735" windowHeight="3690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="t2-s1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1775" uniqueCount="398">
   <si>
     <t>step</t>
   </si>
@@ -1546,20 +1546,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1567,7 +1567,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1659,7 +1659,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1864,27 +1864,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>363</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>364</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>365</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>366</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>367</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -2404,13 +2404,13 @@
       <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -2781,27 +2781,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>363</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>364</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>365</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>366</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>367</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -3436,16 +3436,16 @@
       <selection activeCell="I32" sqref="I32"/>
       <selection pane="topRight" activeCell="I32" sqref="I32"/>
       <selection pane="bottomLeft" activeCell="I32" sqref="I32"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -3717,27 +3717,27 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -3911,12 +3911,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>363</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>364</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>365</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>366</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>367</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -4165,20 +4165,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -4186,7 +4186,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4216,8 +4216,8 @@
       <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
-        <v>7</v>
+      <c r="H3" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="I3" s="1">
         <v>6</v>
@@ -4229,7 +4229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -4477,27 +4477,27 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -4657,7 +4657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>363</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>364</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>365</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>366</v>
       </c>
@@ -4921,7 +4921,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>367</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -4980,13 +4980,13 @@
       <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5034,7 +5034,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5042,7 +5042,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5114,7 +5114,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -5233,7 +5233,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -5255,27 +5255,27 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -5362,7 +5362,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -5449,12 +5449,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>363</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>364</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>365</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>366</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>367</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -5711,13 +5711,13 @@
       <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -5733,7 +5733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5773,7 +5773,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -5805,7 +5805,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -5964,7 +5964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -5980,27 +5980,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -6029,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -6174,12 +6174,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>363</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>364</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>365</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>366</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>367</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -6430,19 +6430,19 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -6633,7 +6633,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -6843,27 +6843,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>363</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>364</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>365</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>366</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>367</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
@@ -7598,13 +7598,13 @@
       <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="1"/>
+    <col min="1" max="1" width="46.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -7738,7 +7738,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -7891,27 +7891,27 @@
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>28</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>363</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>364</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>365</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>366</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>367</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>29</v>
       </c>
